--- a/table_device_package.xlsx
+++ b/table_device_package.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>DEVICES</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>com.htc.pitroad/.boost.ui.WhiteListManageActivity</t>
+  </si>
+  <si>
+    <t>com.meizu.safe.security.AppSecActivity</t>
+  </si>
+  <si>
+    <t>com.meizu.safe.security.AppSecActivity ==com.meizu.safe.security.SHOW_APPSEC</t>
   </si>
 </sst>
 </file>
@@ -1132,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1424,6 +1430,9 @@
       <c r="F11" s="17" t="s">
         <v>57</v>
       </c>
+      <c r="J11" s="10" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="11" t="s">
@@ -1433,6 +1442,9 @@
     <row r="13" spans="1:17">
       <c r="F13" s="19" t="s">
         <v>82</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
